--- a/Datos/BRECHAS_ING/Brechas_Ingresos_Region_11.xlsx
+++ b/Datos/BRECHAS_ING/Brechas_Ingresos_Region_11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\sfarias\Documents\Curso Python\.vscode\dashboard-indicadores\Datos\BRECHAS_ING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF91841-F9A0-43F4-92F2-38367581BEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4058103E-AD4B-490E-A84E-43BE327C1FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,10 +94,10 @@
     <t>Region de Aysén del General Carlos Ibañez del Campo</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD25"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>881057.375</v>
@@ -551,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>799041.375</v>
@@ -580,7 +580,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>592191.5</v>
@@ -609,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>641739.5</v>
@@ -638,7 +638,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>781533.875</v>
@@ -667,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>706654.125</v>
@@ -696,7 +696,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8">
         <v>743394.6875</v>
@@ -725,7 +725,7 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9">
         <v>744162.5625</v>
@@ -754,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10">
         <v>717531.8125</v>
@@ -783,7 +783,7 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11">
         <v>671462.0625</v>
@@ -812,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12">
         <v>835820.4375</v>
@@ -841,7 +841,7 @@
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <v>792670.6875</v>
@@ -870,7 +870,7 @@
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14">
         <v>718863.375</v>
@@ -899,7 +899,7 @@
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15">
         <v>619752.25</v>
@@ -928,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16">
         <v>854799</v>
@@ -957,7 +957,7 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17">
         <v>727471.9375</v>
@@ -986,7 +986,7 @@
         <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18">
         <v>843615.8125</v>
@@ -1015,7 +1015,7 @@
         <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19">
         <v>681656.75</v>
@@ -1044,7 +1044,7 @@
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20">
         <v>665195</v>
@@ -1073,7 +1073,7 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21">
         <v>647472.25</v>
@@ -1093,7 +1093,7 @@
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H22">
         <v>836933.5</v>
@@ -1113,7 +1113,7 @@
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23">
         <v>765301.4375</v>
@@ -1133,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24">
         <v>864177.4375</v>
@@ -1153,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H25">
         <v>740526.3125</v>
